--- a/biology/Histoire de la zoologie et de la botanique/Donald_Frederick_Blaxell/Donald_Frederick_Blaxell.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Donald_Frederick_Blaxell/Donald_Frederick_Blaxell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Donald Frederick Blaxell (né le 1er février 1934 à Sydney, Nouvelle-Galles du Sud) est un botaniste australien, collectionneur de plantes et taxonomiste[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Donald Frederick Blaxell (né le 1er février 1934 à Sydney, Nouvelle-Galles du Sud) est un botaniste australien, collectionneur de plantes et taxonomiste. 
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Blaxell a travaillé pendant 11 ans à l'Université de Nouvelle-Galles du Sud et a rejoint l'herbier national de Nouvelle-Galles du Sud (en) en 1968.  Il s'intéressait particulièrement aux plantes de la famille des Orchidaceae et du genre Eucalyptus. Il a travaillé avec Lawrence Alexander Sidney Johnson dans les années 1960, décrivant de nombreuses espèces. Il était collectionneur passionné, et a en particulier récolté beaucoup d'espèces d’Eucalyptus, généralement en compagnie de Johnson ou L D. Pryor[2]. 
-En 1974 et 1975, Blaxell a servi comme officier de liaison botanique australien aux Jardins botaniques royaux de Kew[2].
-L.A.S.Johnson &amp; K.D. Hill ont nommé en 1992 Eucalyptus blaxellii (en) en son honneur[1]. 
-En 2001, il a reçu une OAM lors de la fête de l'Australie[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blaxell a travaillé pendant 11 ans à l'Université de Nouvelle-Galles du Sud et a rejoint l'herbier national de Nouvelle-Galles du Sud (en) en 1968.  Il s'intéressait particulièrement aux plantes de la famille des Orchidaceae et du genre Eucalyptus. Il a travaillé avec Lawrence Alexander Sidney Johnson dans les années 1960, décrivant de nombreuses espèces. Il était collectionneur passionné, et a en particulier récolté beaucoup d'espèces d’Eucalyptus, généralement en compagnie de Johnson ou L D. Pryor. 
+En 1974 et 1975, Blaxell a servi comme officier de liaison botanique australien aux Jardins botaniques royaux de Kew.
+L.A.S.Johnson &amp; K.D. Hill ont nommé en 1992 Eucalyptus blaxellii (en) en son honneur. 
+En 2001, il a reçu une OAM lors de la fête de l'Australie.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Œuvres choisies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Contributions from the New South Wales Herbarium
 The Orchids of Australia - the Eastern Temperate Zone, 1971
